--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Insl5-Rxfp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Insl5-Rxfp4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Insl5</t>
+  </si>
+  <si>
+    <t>Rxfp4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Insl5</t>
-  </si>
-  <si>
-    <t>Rxfp4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>1.13714</v>
       </c>
       <c r="I2">
-        <v>0.7027334014350806</v>
+        <v>0.8848374496163842</v>
       </c>
       <c r="J2">
-        <v>0.7027334014350807</v>
+        <v>0.8848374496163841</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.418405666666667</v>
+        <v>5.197675333333334</v>
       </c>
       <c r="N2">
-        <v>13.255217</v>
+        <v>15.593026</v>
       </c>
       <c r="O2">
-        <v>0.2376536511931901</v>
+        <v>0.4667706154782232</v>
       </c>
       <c r="P2">
-        <v>0.23765365119319</v>
+        <v>0.4667706154782231</v>
       </c>
       <c r="Q2">
-        <v>1.674781939931111</v>
+        <v>1.970161509515556</v>
       </c>
       <c r="R2">
-        <v>15.07303745938</v>
+        <v>17.73145358564</v>
       </c>
       <c r="S2">
-        <v>0.1670071586664567</v>
+        <v>0.413016120955621</v>
       </c>
       <c r="T2">
-        <v>0.1670071586664567</v>
+        <v>0.4130161209556208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>1.13714</v>
       </c>
       <c r="I3">
-        <v>0.7027334014350806</v>
+        <v>0.8848374496163842</v>
       </c>
       <c r="J3">
-        <v>0.7027334014350807</v>
+        <v>0.8848374496163841</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>5.750881</v>
       </c>
       <c r="O3">
-        <v>0.1031079209965061</v>
+        <v>0.1721501820052131</v>
       </c>
       <c r="P3">
-        <v>0.1031079209965061</v>
+        <v>0.172150182005213</v>
       </c>
       <c r="Q3">
         <v>0.7266174244822222</v>
@@ -641,10 +641,10 @@
         <v>6.53955682034</v>
       </c>
       <c r="S3">
-        <v>0.07245738003677427</v>
+        <v>0.1523249279964891</v>
       </c>
       <c r="T3">
-        <v>0.07245738003677427</v>
+        <v>0.152324927996489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>1.13714</v>
       </c>
       <c r="I4">
-        <v>0.7027334014350806</v>
+        <v>0.8848374496163842</v>
       </c>
       <c r="J4">
-        <v>0.7027334014350807</v>
+        <v>0.8848374496163841</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.442876333333333</v>
+        <v>0.9113383333333335</v>
       </c>
       <c r="N4">
-        <v>7.328628999999999</v>
+        <v>2.734015</v>
       </c>
       <c r="O4">
-        <v>0.1313954679195593</v>
+        <v>0.08184157868246321</v>
       </c>
       <c r="P4">
-        <v>0.1313954679195593</v>
+        <v>0.08184157868246318</v>
       </c>
       <c r="Q4">
-        <v>0.9259641312288889</v>
+        <v>0.3454397574555557</v>
       </c>
       <c r="R4">
-        <v>8.333677181059999</v>
+        <v>3.1089578171</v>
       </c>
       <c r="S4">
-        <v>0.09233598410426593</v>
+        <v>0.07241649375396939</v>
       </c>
       <c r="T4">
-        <v>0.09233598410426594</v>
+        <v>0.07241649375396936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -735,10 +735,10 @@
         <v>1.13714</v>
       </c>
       <c r="I5">
-        <v>0.7027334014350806</v>
+        <v>0.8848374496163842</v>
       </c>
       <c r="J5">
-        <v>0.7027334014350807</v>
+        <v>0.8848374496163841</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.304502666666667</v>
+        <v>0.9066646666666666</v>
       </c>
       <c r="N5">
-        <v>18.913508</v>
+        <v>2.719994</v>
       </c>
       <c r="O5">
-        <v>0.3391015200333281</v>
+        <v>0.08142186599811185</v>
       </c>
       <c r="P5">
-        <v>0.339101520033328</v>
+        <v>0.08142186599811183</v>
       </c>
       <c r="Q5">
-        <v>2.389700720791112</v>
+        <v>0.3436682196844444</v>
       </c>
       <c r="R5">
-        <v>21.50730648712</v>
+        <v>3.09301397716</v>
       </c>
       <c r="S5">
-        <v>0.2382979646048267</v>
+        <v>0.07204511625277628</v>
       </c>
       <c r="T5">
-        <v>0.2382979646048267</v>
+        <v>0.07204511625277625</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>1.13714</v>
       </c>
       <c r="I6">
-        <v>0.7027334014350806</v>
+        <v>0.8848374496163842</v>
       </c>
       <c r="J6">
-        <v>0.7027334014350807</v>
+        <v>0.8848374496163841</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.523698</v>
+        <v>1.443486333333333</v>
       </c>
       <c r="N6">
-        <v>4.571094</v>
+        <v>4.330459</v>
       </c>
       <c r="O6">
-        <v>0.08195544283034249</v>
+        <v>0.1296304522761144</v>
       </c>
       <c r="P6">
-        <v>0.08195544283034248</v>
+        <v>0.1296304522761144</v>
       </c>
       <c r="Q6">
-        <v>0.5775526479066666</v>
+        <v>0.547148683028889</v>
       </c>
       <c r="R6">
-        <v>5.19797383116</v>
+        <v>4.92433814726</v>
       </c>
       <c r="S6">
-        <v>0.05759282710628487</v>
+        <v>0.1147018787846155</v>
       </c>
       <c r="T6">
-        <v>0.05759282710628486</v>
+        <v>0.1147018787846154</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>1.13714</v>
       </c>
       <c r="I7">
-        <v>0.7027334014350806</v>
+        <v>0.8848374496163842</v>
       </c>
       <c r="J7">
-        <v>0.7027334014350807</v>
+        <v>0.8848374496163841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.985342333333333</v>
+        <v>0.7592703333333333</v>
       </c>
       <c r="N7">
-        <v>5.956027</v>
+        <v>2.277811</v>
       </c>
       <c r="O7">
-        <v>0.1067859970270741</v>
+        <v>0.06818530555987445</v>
       </c>
       <c r="P7">
-        <v>0.1067859970270741</v>
+        <v>0.06818530555987443</v>
       </c>
       <c r="Q7">
-        <v>0.7525373936422223</v>
+        <v>0.2877988889488889</v>
       </c>
       <c r="R7">
-        <v>6.77283654278</v>
+        <v>2.59019000054</v>
       </c>
       <c r="S7">
-        <v>0.0750420869164722</v>
+        <v>0.06033291187291318</v>
       </c>
       <c r="T7">
-        <v>0.0750420869164722</v>
+        <v>0.06033291187291314</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.02002933333333333</v>
+        <v>0.04933333333333334</v>
       </c>
       <c r="H8">
-        <v>0.060088</v>
+        <v>0.148</v>
       </c>
       <c r="I8">
-        <v>0.03713337374943377</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="J8">
-        <v>0.03713337374943378</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.418405666666667</v>
+        <v>5.197675333333334</v>
       </c>
       <c r="N8">
-        <v>13.255217</v>
+        <v>15.593026</v>
       </c>
       <c r="O8">
-        <v>0.2376536511931901</v>
+        <v>0.4667706154782232</v>
       </c>
       <c r="P8">
-        <v>0.23765365119319</v>
+        <v>0.4667706154782231</v>
       </c>
       <c r="Q8">
-        <v>0.08849771989955556</v>
+        <v>0.2564186497777778</v>
       </c>
       <c r="R8">
-        <v>0.796479479096</v>
+        <v>2.307767848000001</v>
       </c>
       <c r="S8">
-        <v>0.008824881852674294</v>
+        <v>0.05375449452260223</v>
       </c>
       <c r="T8">
-        <v>0.008824881852674294</v>
+        <v>0.05375449452260222</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.02002933333333333</v>
+        <v>0.04933333333333334</v>
       </c>
       <c r="H9">
-        <v>0.060088</v>
+        <v>0.148</v>
       </c>
       <c r="I9">
-        <v>0.03713337374943377</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="J9">
-        <v>0.03713337374943378</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>5.750881</v>
       </c>
       <c r="O9">
-        <v>0.1031079209965061</v>
+        <v>0.1721501820052131</v>
       </c>
       <c r="P9">
-        <v>0.1031079209965061</v>
+        <v>0.172150182005213</v>
       </c>
       <c r="Q9">
-        <v>0.03839543750311111</v>
+        <v>0.09457004311111111</v>
       </c>
       <c r="R9">
-        <v>0.345558937528</v>
+        <v>0.8511303880000001</v>
       </c>
       <c r="S9">
-        <v>0.003828744966890349</v>
+        <v>0.01982525400872398</v>
       </c>
       <c r="T9">
-        <v>0.003828744966890349</v>
+        <v>0.01982525400872397</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.02002933333333333</v>
+        <v>0.04933333333333334</v>
       </c>
       <c r="H10">
-        <v>0.060088</v>
+        <v>0.148</v>
       </c>
       <c r="I10">
-        <v>0.03713337374943377</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="J10">
-        <v>0.03713337374943378</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.442876333333333</v>
+        <v>0.9113383333333335</v>
       </c>
       <c r="N10">
-        <v>7.328628999999999</v>
+        <v>2.734015</v>
       </c>
       <c r="O10">
-        <v>0.1313954679195593</v>
+        <v>0.08184157868246321</v>
       </c>
       <c r="P10">
-        <v>0.1313954679195593</v>
+        <v>0.08184157868246318</v>
       </c>
       <c r="Q10">
-        <v>0.04892918437244444</v>
+        <v>0.04495935777777779</v>
       </c>
       <c r="R10">
-        <v>0.440362659352</v>
+        <v>0.4046342200000001</v>
       </c>
       <c r="S10">
-        <v>0.004879157019238731</v>
+        <v>0.009425084928493825</v>
       </c>
       <c r="T10">
-        <v>0.004879157019238732</v>
+        <v>0.009425084928493822</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.02002933333333333</v>
+        <v>0.04933333333333334</v>
       </c>
       <c r="H11">
-        <v>0.060088</v>
+        <v>0.148</v>
       </c>
       <c r="I11">
-        <v>0.03713337374943377</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="J11">
-        <v>0.03713337374943378</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.304502666666667</v>
+        <v>0.9066646666666666</v>
       </c>
       <c r="N11">
-        <v>18.913508</v>
+        <v>2.719994</v>
       </c>
       <c r="O11">
-        <v>0.3391015200333281</v>
+        <v>0.08142186599811185</v>
       </c>
       <c r="P11">
-        <v>0.339101520033328</v>
+        <v>0.08142186599811183</v>
       </c>
       <c r="Q11">
-        <v>0.1262749854115556</v>
+        <v>0.04472879022222222</v>
       </c>
       <c r="R11">
-        <v>1.136474868704</v>
+        <v>0.4025591120000001</v>
       </c>
       <c r="S11">
-        <v>0.01259198348239867</v>
+        <v>0.009376749745335569</v>
       </c>
       <c r="T11">
-        <v>0.01259198348239867</v>
+        <v>0.009376749745335566</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.02002933333333333</v>
+        <v>0.04933333333333334</v>
       </c>
       <c r="H12">
-        <v>0.060088</v>
+        <v>0.148</v>
       </c>
       <c r="I12">
-        <v>0.03713337374943377</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="J12">
-        <v>0.03713337374943378</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.523698</v>
+        <v>1.443486333333333</v>
       </c>
       <c r="N12">
-        <v>4.571094</v>
+        <v>4.330459</v>
       </c>
       <c r="O12">
-        <v>0.08195544283034249</v>
+        <v>0.1296304522761144</v>
       </c>
       <c r="P12">
-        <v>0.08195544283034248</v>
+        <v>0.1296304522761144</v>
       </c>
       <c r="Q12">
-        <v>0.03051865514133333</v>
+        <v>0.07121199244444446</v>
       </c>
       <c r="R12">
-        <v>0.274667896272</v>
+        <v>0.6409079320000002</v>
       </c>
       <c r="S12">
-        <v>0.00304328208941946</v>
+        <v>0.01492857349149893</v>
       </c>
       <c r="T12">
-        <v>0.00304328208941946</v>
+        <v>0.01492857349149892</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.02002933333333333</v>
+        <v>0.04933333333333334</v>
       </c>
       <c r="H13">
-        <v>0.060088</v>
+        <v>0.148</v>
       </c>
       <c r="I13">
-        <v>0.03713337374943377</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="J13">
-        <v>0.03713337374943378</v>
+        <v>0.1151625503836158</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,400 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.985342333333333</v>
+        <v>0.7592703333333333</v>
       </c>
       <c r="N13">
-        <v>5.956027</v>
+        <v>2.277811</v>
       </c>
       <c r="O13">
-        <v>0.1067859970270741</v>
+        <v>0.06818530555987445</v>
       </c>
       <c r="P13">
-        <v>0.1067859970270741</v>
+        <v>0.06818530555987443</v>
       </c>
       <c r="Q13">
-        <v>0.03976508337511111</v>
+        <v>0.03745733644444445</v>
       </c>
       <c r="R13">
-        <v>0.357885750376</v>
+        <v>0.337116028</v>
       </c>
       <c r="S13">
-        <v>0.003965324338812267</v>
+        <v>0.00785239368696128</v>
       </c>
       <c r="T13">
-        <v>0.003965324338812267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.140313</v>
-      </c>
-      <c r="H14">
-        <v>0.420939</v>
-      </c>
-      <c r="I14">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="J14">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>4.418405666666667</v>
-      </c>
-      <c r="N14">
-        <v>13.255217</v>
-      </c>
-      <c r="O14">
-        <v>0.2376536511931901</v>
-      </c>
-      <c r="P14">
-        <v>0.23765365119319</v>
-      </c>
-      <c r="Q14">
-        <v>0.619959754307</v>
-      </c>
-      <c r="R14">
-        <v>5.579637788763</v>
-      </c>
-      <c r="S14">
-        <v>0.06182161067405913</v>
-      </c>
-      <c r="T14">
-        <v>0.06182161067405912</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.140313</v>
-      </c>
-      <c r="H15">
-        <v>0.420939</v>
-      </c>
-      <c r="I15">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="J15">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.916960333333333</v>
-      </c>
-      <c r="N15">
-        <v>5.750881</v>
-      </c>
-      <c r="O15">
-        <v>0.1031079209965061</v>
-      </c>
-      <c r="P15">
-        <v>0.1031079209965061</v>
-      </c>
-      <c r="Q15">
-        <v>0.2689744552509999</v>
-      </c>
-      <c r="R15">
-        <v>2.420770097259</v>
-      </c>
-      <c r="S15">
-        <v>0.02682179599284145</v>
-      </c>
-      <c r="T15">
-        <v>0.02682179599284144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.140313</v>
-      </c>
-      <c r="H16">
-        <v>0.420939</v>
-      </c>
-      <c r="I16">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="J16">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.442876333333333</v>
-      </c>
-      <c r="N16">
-        <v>7.328628999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.1313954679195593</v>
-      </c>
-      <c r="P16">
-        <v>0.1313954679195593</v>
-      </c>
-      <c r="Q16">
-        <v>0.3427673069589999</v>
-      </c>
-      <c r="R16">
-        <v>3.084905762631</v>
-      </c>
-      <c r="S16">
-        <v>0.03418032679605466</v>
-      </c>
-      <c r="T16">
-        <v>0.03418032679605466</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.140313</v>
-      </c>
-      <c r="H17">
-        <v>0.420939</v>
-      </c>
-      <c r="I17">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="J17">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>6.304502666666667</v>
-      </c>
-      <c r="N17">
-        <v>18.913508</v>
-      </c>
-      <c r="O17">
-        <v>0.3391015200333281</v>
-      </c>
-      <c r="P17">
-        <v>0.339101520033328</v>
-      </c>
-      <c r="Q17">
-        <v>0.884603682668</v>
-      </c>
-      <c r="R17">
-        <v>7.961433144012</v>
-      </c>
-      <c r="S17">
-        <v>0.08821157194610264</v>
-      </c>
-      <c r="T17">
-        <v>0.08821157194610263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.140313</v>
-      </c>
-      <c r="H18">
-        <v>0.420939</v>
-      </c>
-      <c r="I18">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="J18">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1.523698</v>
-      </c>
-      <c r="N18">
-        <v>4.571094</v>
-      </c>
-      <c r="O18">
-        <v>0.08195544283034249</v>
-      </c>
-      <c r="P18">
-        <v>0.08195544283034248</v>
-      </c>
-      <c r="Q18">
-        <v>0.213794637474</v>
-      </c>
-      <c r="R18">
-        <v>1.924151737266</v>
-      </c>
-      <c r="S18">
-        <v>0.02131933363463817</v>
-      </c>
-      <c r="T18">
-        <v>0.02131933363463816</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.140313</v>
-      </c>
-      <c r="H19">
-        <v>0.420939</v>
-      </c>
-      <c r="I19">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="J19">
-        <v>0.2601332248154857</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.985342333333333</v>
-      </c>
-      <c r="N19">
-        <v>5.956027</v>
-      </c>
-      <c r="O19">
-        <v>0.1067859970270741</v>
-      </c>
-      <c r="P19">
-        <v>0.1067859970270741</v>
-      </c>
-      <c r="Q19">
-        <v>0.278569338817</v>
-      </c>
-      <c r="R19">
-        <v>2.507124049353</v>
-      </c>
-      <c r="S19">
-        <v>0.02777858577178966</v>
-      </c>
-      <c r="T19">
-        <v>0.02777858577178965</v>
+        <v>0.007852393686961277</v>
       </c>
     </row>
   </sheetData>
